--- a/src/test/java/dataEngine/Planning 2.xlsx
+++ b/src/test/java/dataEngine/Planning 2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="23955" windowHeight="12075"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>TS_002</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>DUNEDIN</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -770,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -842,19 +870,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -863,19 +891,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -884,21 +912,21 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -907,21 +935,21 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -930,18 +958,18 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>9</v>
@@ -953,21 +981,21 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -976,21 +1004,21 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -999,21 +1027,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1022,21 +1050,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1045,21 +1073,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1068,21 +1096,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1091,21 +1119,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1114,21 +1142,21 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -1137,21 +1165,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1160,21 +1188,21 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1183,21 +1211,21 @@
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1206,21 +1234,21 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1229,21 +1257,21 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -1252,21 +1280,21 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -1275,21 +1303,21 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -1298,21 +1326,21 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -1321,21 +1349,21 @@
         <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -1344,21 +1372,21 @@
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -1367,21 +1395,21 @@
         <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -1390,21 +1418,21 @@
         <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -1413,21 +1441,21 @@
         <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -1436,21 +1464,21 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -1459,21 +1487,21 @@
         <v>9</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -1482,21 +1510,21 @@
         <v>9</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -1505,21 +1533,21 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -1528,21 +1556,21 @@
         <v>9</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -1551,21 +1579,21 @@
         <v>9</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -1574,21 +1602,21 @@
         <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -1597,21 +1625,21 @@
         <v>9</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -1620,21 +1648,21 @@
         <v>9</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1"/>
     </row>
@@ -1643,21 +1671,21 @@
         <v>9</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -1666,21 +1694,21 @@
         <v>9</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -1689,21 +1717,21 @@
         <v>9</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -1712,21 +1740,21 @@
         <v>9</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H41" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -1735,21 +1763,21 @@
         <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -1758,21 +1786,21 @@
         <v>9</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="1"/>
     </row>
